--- a/Code/Results/Cases/Case_3_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.446072203172804</v>
+        <v>0.8546379068706642</v>
       </c>
       <c r="C2">
-        <v>0.09543358199342578</v>
+        <v>0.1453813793327683</v>
       </c>
       <c r="D2">
-        <v>0.04799882819240153</v>
+        <v>0.05331196988965559</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9049464781722634</v>
+        <v>1.248581532117257</v>
       </c>
       <c r="G2">
-        <v>0.8358227438049965</v>
+        <v>1.124731381346066</v>
       </c>
       <c r="H2">
-        <v>0.5747064315021078</v>
+        <v>1.099298929078799</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.109170299418992</v>
+        <v>0.4402374974239649</v>
       </c>
       <c r="L2">
-        <v>0.3991611250828555</v>
+        <v>0.3041183138331007</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.041093229147812</v>
+        <v>2.054157730142066</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.259336245440977</v>
+        <v>0.8070385758574901</v>
       </c>
       <c r="C3">
-        <v>0.09393073084726566</v>
+        <v>0.1447875784585975</v>
       </c>
       <c r="D3">
-        <v>0.04651900133558229</v>
+        <v>0.05261386623917375</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8494652745727365</v>
+        <v>1.24167878236868</v>
       </c>
       <c r="G3">
-        <v>0.7882325471370564</v>
+        <v>1.119222560094229</v>
       </c>
       <c r="H3">
-        <v>0.5597443541563933</v>
+        <v>1.101473366892321</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9608109666641269</v>
+        <v>0.399407620758268</v>
       </c>
       <c r="L3">
-        <v>0.3519418334635986</v>
+        <v>0.2931447837167553</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.084119668019767</v>
+        <v>2.072376104573351</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.145770103898997</v>
+        <v>0.7782410031614972</v>
       </c>
       <c r="C4">
-        <v>0.09301084495416845</v>
+        <v>0.1444185682655075</v>
       </c>
       <c r="D4">
-        <v>0.04560107507840172</v>
+        <v>0.05217782790180792</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8169764382192142</v>
+        <v>1.23812150568542</v>
       </c>
       <c r="G4">
-        <v>0.760601089100561</v>
+        <v>1.116483651846906</v>
       </c>
       <c r="H4">
-        <v>0.5514788136255646</v>
+        <v>1.103276275730423</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8703106836686345</v>
+        <v>0.3744920737558459</v>
       </c>
       <c r="L4">
-        <v>0.3234191715377221</v>
+        <v>0.2865851252705625</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.111953297785448</v>
+        <v>2.084209235229796</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.099732980164077</v>
+        <v>0.7666138606835773</v>
       </c>
       <c r="C5">
-        <v>0.09263655708612362</v>
+        <v>0.1442670917370314</v>
       </c>
       <c r="D5">
-        <v>0.04522467751077386</v>
+        <v>0.05199828836267528</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8041088840027797</v>
+        <v>1.236843069373904</v>
       </c>
       <c r="G5">
-        <v>0.7497155408522929</v>
+        <v>1.115529180478745</v>
       </c>
       <c r="H5">
-        <v>0.5483308169637695</v>
+        <v>1.104128640856047</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8335566352216688</v>
+        <v>0.3643777588673061</v>
       </c>
       <c r="L5">
-        <v>0.3119030328156498</v>
+        <v>0.2839567887518228</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.123640697481918</v>
+        <v>2.089193930343693</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.092102260965021</v>
+        <v>0.7646897212974579</v>
       </c>
       <c r="C6">
-        <v>0.09257443739368654</v>
+        <v>0.1442418728643773</v>
       </c>
       <c r="D6">
-        <v>0.0451620361767695</v>
+        <v>0.05196836450886622</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8019940058382957</v>
+        <v>1.236641123017883</v>
       </c>
       <c r="G6">
-        <v>0.7479299155655781</v>
+        <v>1.115380450074682</v>
       </c>
       <c r="H6">
-        <v>0.5478210785852582</v>
+        <v>1.104277283158666</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8274605744397832</v>
+        <v>0.3627006446240841</v>
       </c>
       <c r="L6">
-        <v>0.3099969399976459</v>
+        <v>0.2835230595036506</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.125601909976098</v>
+        <v>2.090031453150544</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.145148292512374</v>
+        <v>0.7780837573172619</v>
       </c>
       <c r="C7">
-        <v>0.09300579504330031</v>
+        <v>0.1444165298506306</v>
       </c>
       <c r="D7">
-        <v>0.04559600829465182</v>
+        <v>0.05217541404770643</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8168014275374276</v>
+        <v>1.238103571228983</v>
       </c>
       <c r="G7">
-        <v>0.7604527986080996</v>
+        <v>1.11647012519434</v>
       </c>
       <c r="H7">
-        <v>0.5514354812984834</v>
+        <v>1.103287294560445</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8698145274834133</v>
+        <v>0.3743555104922791</v>
       </c>
       <c r="L7">
-        <v>0.3232634415882245</v>
+        <v>0.2865494973209763</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.112109535308598</v>
+        <v>2.084275802339935</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.381439283589543</v>
+        <v>0.8381368775703208</v>
       </c>
       <c r="C8">
-        <v>0.09491470878101183</v>
+        <v>0.1451775575922838</v>
       </c>
       <c r="D8">
-        <v>0.04749051671140592</v>
+        <v>0.05307280561254757</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8854740248553128</v>
+        <v>1.246060066249456</v>
       </c>
       <c r="G8">
-        <v>0.8190682510501404</v>
+        <v>1.12269827079291</v>
       </c>
       <c r="H8">
-        <v>0.5693492474645439</v>
+        <v>1.099951602706867</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.057878282231428</v>
+        <v>0.4261274705279448</v>
       </c>
       <c r="L8">
-        <v>0.3827754034551276</v>
+        <v>0.3002976554409429</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.055628262728789</v>
+        <v>2.060305093828482</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.855030169057216</v>
+        <v>0.9592943975889909</v>
       </c>
       <c r="C9">
-        <v>0.09868850388163253</v>
+        <v>0.1466346169324879</v>
       </c>
       <c r="D9">
-        <v>0.0511319888847197</v>
+        <v>0.05477348885914779</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.033841605901074</v>
+        <v>1.267072178873434</v>
       </c>
       <c r="G9">
-        <v>0.9478351306097181</v>
+        <v>1.140027412067354</v>
       </c>
       <c r="H9">
-        <v>0.6123374955416665</v>
+        <v>1.097121502550536</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.432527369011751</v>
+        <v>0.5288716965494586</v>
       </c>
       <c r="L9">
-        <v>0.5037505016087067</v>
+        <v>0.3286736726815889</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9566196934615689</v>
+        <v>2.018435489207832</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.211586838024516</v>
+        <v>1.0503781672586</v>
       </c>
       <c r="C10">
-        <v>0.1014918047897382</v>
+        <v>0.1476832952272389</v>
       </c>
       <c r="D10">
-        <v>0.0537633811255489</v>
+        <v>0.05598654196006692</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.152981631706012</v>
+        <v>1.285819096086016</v>
       </c>
       <c r="G10">
-        <v>1.052684647440742</v>
+        <v>1.155894367363146</v>
       </c>
       <c r="H10">
-        <v>0.6495363920437995</v>
+        <v>1.097305302643832</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.713096392277549</v>
+        <v>0.6051045684659186</v>
       </c>
       <c r="L10">
-        <v>0.5960505646831251</v>
+        <v>0.3503908061022969</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8918176319560942</v>
+        <v>1.990809377785887</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.376239410762537</v>
+        <v>1.092264656665009</v>
       </c>
       <c r="C11">
-        <v>0.1027768716702511</v>
+        <v>0.1481555715254146</v>
       </c>
       <c r="D11">
-        <v>0.05495125080335583</v>
+        <v>0.05653039967657492</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.20981349717735</v>
+        <v>1.295068882724252</v>
       </c>
       <c r="G11">
-        <v>1.10304865693287</v>
+        <v>1.163797218593686</v>
       </c>
       <c r="H11">
-        <v>0.6678784497777031</v>
+        <v>1.097880583207839</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.84231210570232</v>
+        <v>0.6399482075570688</v>
       </c>
       <c r="L11">
-        <v>0.6389802891262661</v>
+        <v>0.3604607173156893</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.864250114363621</v>
+        <v>1.978923254382728</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.438993634284998</v>
+        <v>1.108190814734428</v>
       </c>
       <c r="C12">
-        <v>0.1032651959815354</v>
+        <v>0.1483337172038688</v>
       </c>
       <c r="D12">
-        <v>0.05539977985550593</v>
+        <v>0.05673519005097205</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.231752204895344</v>
+        <v>1.298675470544779</v>
       </c>
       <c r="G12">
-        <v>1.122543841477423</v>
+        <v>1.166888555336755</v>
       </c>
       <c r="H12">
-        <v>0.6750465281710518</v>
+        <v>1.098169129494025</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.891508539219359</v>
+        <v>0.6531662168677883</v>
       </c>
       <c r="L12">
-        <v>0.6553899397136433</v>
+        <v>0.3643014122941679</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8541032991747457</v>
+        <v>1.974520345773165</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.425459567051121</v>
+        <v>1.10475796166935</v>
       </c>
       <c r="C13">
-        <v>0.1031599462337596</v>
+        <v>0.1482953813989667</v>
       </c>
       <c r="D13">
-        <v>0.05530323803148463</v>
+        <v>0.05669113640316681</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.227008079532283</v>
+        <v>1.297894104806872</v>
       </c>
       <c r="G13">
-        <v>1.118325701642831</v>
+        <v>1.166218387636704</v>
       </c>
       <c r="H13">
-        <v>0.6734925602740702</v>
+        <v>1.098103841494435</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.880900777606939</v>
+        <v>0.6503184415673786</v>
       </c>
       <c r="L13">
-        <v>0.6518487219665019</v>
+        <v>0.3634730292923933</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8562752965554452</v>
+        <v>1.975464224905046</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.381393836219559</v>
+        <v>1.093573617504433</v>
       </c>
       <c r="C14">
-        <v>0.1028170106422976</v>
+        <v>0.1481702416591304</v>
       </c>
       <c r="D14">
-        <v>0.05498817726145688</v>
+        <v>0.05654727115057057</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.21160980190065</v>
+        <v>1.295363516033561</v>
       </c>
       <c r="G14">
-        <v>1.104643811021035</v>
+        <v>1.164049565448494</v>
       </c>
       <c r="H14">
-        <v>0.6684636065044742</v>
+        <v>1.097902905155109</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.846353983387502</v>
+        <v>0.6410351919282675</v>
       </c>
       <c r="L14">
-        <v>0.640327146325447</v>
+        <v>0.3607761435938102</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8634093634963946</v>
+        <v>1.97855905726334</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.354456489634003</v>
+        <v>1.08673129328298</v>
       </c>
       <c r="C15">
-        <v>0.1026071827297415</v>
+        <v>0.1480934991724538</v>
       </c>
       <c r="D15">
-        <v>0.05479502617841092</v>
+        <v>0.05645899855698389</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.202233520438199</v>
+        <v>1.293826990787409</v>
       </c>
       <c r="G15">
-        <v>1.096319641167213</v>
+        <v>1.162733958986692</v>
       </c>
       <c r="H15">
-        <v>0.665412746769789</v>
+        <v>1.09778903305363</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.825228786606971</v>
+        <v>0.6353519841804598</v>
       </c>
       <c r="L15">
-        <v>0.6332903350798631</v>
+        <v>0.3591277970489415</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8678178125323655</v>
+        <v>1.980467512918786</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.200880040881657</v>
+        <v>1.047649852880738</v>
       </c>
       <c r="C16">
-        <v>0.1014080439724552</v>
+        <v>0.1476523340679776</v>
       </c>
       <c r="D16">
-        <v>0.0536855687237292</v>
+        <v>0.05595083831834557</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.149323798413533</v>
+        <v>1.285229133176955</v>
       </c>
       <c r="G16">
-        <v>1.049450247597491</v>
+        <v>1.155391697332036</v>
       </c>
       <c r="H16">
-        <v>0.6483677866044388</v>
+        <v>1.097277600196819</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.704686842385371</v>
+        <v>0.6028307531657617</v>
       </c>
       <c r="L16">
-        <v>0.5932654357619356</v>
+        <v>0.3497365522668048</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8936591614632832</v>
+        <v>1.991599883838738</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.107329213582318</v>
+        <v>1.023790182327673</v>
       </c>
       <c r="C17">
-        <v>0.1006751207535785</v>
+        <v>0.1473804648761501</v>
       </c>
       <c r="D17">
-        <v>0.05300262175533277</v>
+        <v>0.0556370501180723</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.117566812049873</v>
+        <v>1.280139555225247</v>
       </c>
       <c r="G17">
-        <v>1.021407906238778</v>
+        <v>1.151063025642998</v>
       </c>
       <c r="H17">
-        <v>0.6382874018761697</v>
+        <v>1.097089779567185</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.631169554826755</v>
+        <v>0.5829221037472792</v>
       </c>
       <c r="L17">
-        <v>0.5689648127179794</v>
+        <v>0.3440241784533526</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9100135487946091</v>
+        <v>1.998603801784292</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.053748851330397</v>
+        <v>1.010109298379064</v>
       </c>
       <c r="C18">
-        <v>0.1002544692052822</v>
+        <v>0.147223644198931</v>
       </c>
       <c r="D18">
-        <v>0.05260894414687556</v>
+        <v>0.05545581828746649</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.099546491005469</v>
+        <v>1.277280089554722</v>
       </c>
       <c r="G18">
-        <v>1.005527188941997</v>
+        <v>1.14863774089936</v>
       </c>
       <c r="H18">
-        <v>0.6326219245466973</v>
+        <v>1.09702802831292</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.589030968767531</v>
+        <v>0.5714867126249032</v>
       </c>
       <c r="L18">
-        <v>0.5550752591273778</v>
+        <v>0.3407565185437988</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9195989203187125</v>
+        <v>2.002696371693503</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.035645063249319</v>
+        <v>1.005484507747212</v>
       </c>
       <c r="C19">
-        <v>0.1001121914014789</v>
+        <v>0.1471704706146895</v>
       </c>
       <c r="D19">
-        <v>0.05247550250443211</v>
+        <v>0.05539432797869281</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.093486144732836</v>
+        <v>1.276323586393744</v>
       </c>
       <c r="G19">
-        <v>1.000191769825079</v>
+        <v>1.147827644544321</v>
       </c>
       <c r="H19">
-        <v>0.6307259192830657</v>
+        <v>1.097015068792203</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.574787655633969</v>
+        <v>0.5676175614625265</v>
       </c>
       <c r="L19">
-        <v>0.5503870130174988</v>
+        <v>0.3396532267849182</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9228745534799359</v>
+        <v>2.004093050168059</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.117263946522883</v>
+        <v>1.026325681933486</v>
       </c>
       <c r="C20">
-        <v>0.1007530459122563</v>
+        <v>0.147409452319593</v>
       </c>
       <c r="D20">
-        <v>0.05307541194009247</v>
+        <v>0.0556705310237291</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.120921722121125</v>
+        <v>1.280674318697464</v>
       </c>
       <c r="G20">
-        <v>1.024367064899451</v>
+        <v>1.151517147985771</v>
       </c>
       <c r="H20">
-        <v>0.6393466369907088</v>
+        <v>1.09710498378341</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.638980159759711</v>
+        <v>0.5850398071116274</v>
       </c>
       <c r="L20">
-        <v>0.5715424741841133</v>
+        <v>0.3446304128756594</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.908253972798903</v>
+        <v>1.997851587319872</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.394325619857966</v>
+        <v>1.096856978580149</v>
       </c>
       <c r="C21">
-        <v>0.1029176906438778</v>
+        <v>0.1482070171690708</v>
       </c>
       <c r="D21">
-        <v>0.05508075304670257</v>
+        <v>0.05658955934460863</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.216120986557769</v>
+        <v>1.296103990739766</v>
       </c>
       <c r="G21">
-        <v>1.108650687787005</v>
+        <v>1.164683920758549</v>
       </c>
       <c r="H21">
-        <v>0.6699345456939199</v>
+        <v>1.097960006255107</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.856493700281817</v>
+        <v>0.64376127203343</v>
       </c>
       <c r="L21">
-        <v>0.6437070093974029</v>
+        <v>0.3615675394829481</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8613058317565958</v>
+        <v>1.977647366037743</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.577782399992316</v>
+        <v>1.143329948457165</v>
       </c>
       <c r="C22">
-        <v>0.1043424613606163</v>
+        <v>0.1487242162627425</v>
       </c>
       <c r="D22">
-        <v>0.05638385001445556</v>
+        <v>0.05718344999873892</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.280794421018129</v>
+        <v>1.306793801719039</v>
       </c>
       <c r="G22">
-        <v>1.166223964362814</v>
+        <v>1.173864557083931</v>
       </c>
       <c r="H22">
-        <v>0.691231035337097</v>
+        <v>1.098930906926199</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.000217238970066</v>
+        <v>0.6822758905168769</v>
       </c>
       <c r="L22">
-        <v>0.691772350055686</v>
+        <v>0.3727968701223432</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8323361427616831</v>
+        <v>1.965014667683867</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.479632168717671</v>
+        <v>1.118492097055878</v>
       </c>
       <c r="C23">
-        <v>0.1035810120953116</v>
+        <v>0.148448551350242</v>
       </c>
       <c r="D23">
-        <v>0.05568903896503485</v>
+        <v>0.05686710044638232</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.246038623824873</v>
+        <v>1.301032996221366</v>
       </c>
       <c r="G23">
-        <v>1.135254204276393</v>
+        <v>1.168911960416139</v>
       </c>
       <c r="H23">
-        <v>0.6797388389850312</v>
+        <v>1.098375012478158</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.923352741723818</v>
+        <v>0.6617074794153268</v>
       </c>
       <c r="L23">
-        <v>0.6660302471881607</v>
+        <v>0.3667889243273521</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8476348052453702</v>
+        <v>1.971704590630971</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.112771824479239</v>
+        <v>1.025179269283854</v>
       </c>
       <c r="C24">
-        <v>0.1007178137395783</v>
+        <v>0.1473963487146221</v>
       </c>
       <c r="D24">
-        <v>0.05304250674591771</v>
+        <v>0.0556553968928668</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.119404231373451</v>
+        <v>1.280432344679284</v>
       </c>
       <c r="G24">
-        <v>1.023028480962338</v>
+        <v>1.151311642029242</v>
       </c>
       <c r="H24">
-        <v>0.6388673536312268</v>
+        <v>1.097097965949189</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.635448590991388</v>
+        <v>0.5840823611460451</v>
       </c>
       <c r="L24">
-        <v>0.5703768618364791</v>
+        <v>0.3443562830271105</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9090489083616831</v>
+        <v>1.998191458129234</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.725582062979527</v>
+        <v>0.9261547252329194</v>
       </c>
       <c r="C25">
-        <v>0.0976631610777936</v>
+        <v>0.1462442551279075</v>
       </c>
       <c r="D25">
-        <v>0.05015468744106144</v>
+        <v>0.05431977883119998</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9920615295260262</v>
+        <v>1.260807534048269</v>
       </c>
       <c r="G25">
-        <v>0.9113411133872802</v>
+        <v>1.134790037636847</v>
       </c>
       <c r="H25">
-        <v>0.5997853450626849</v>
+        <v>1.097489750949833</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.330375796570735</v>
+        <v>0.5009457691808166</v>
       </c>
       <c r="L25">
-        <v>0.4704856652008402</v>
+        <v>0.320844994949141</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9820697307855397</v>
+        <v>2.029211997147272</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_67/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_67/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8546379068706642</v>
+        <v>1.446072203172832</v>
       </c>
       <c r="C2">
-        <v>0.1453813793327683</v>
+        <v>0.09543358199342578</v>
       </c>
       <c r="D2">
-        <v>0.05331196988965559</v>
+        <v>0.047998828192231</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.248581532117257</v>
+        <v>0.9049464781722492</v>
       </c>
       <c r="G2">
-        <v>1.124731381346066</v>
+        <v>0.8358227438049965</v>
       </c>
       <c r="H2">
-        <v>1.099298929078799</v>
+        <v>0.5747064315021078</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4402374974239649</v>
+        <v>1.109170299419048</v>
       </c>
       <c r="L2">
-        <v>0.3041183138331007</v>
+        <v>0.399161125082756</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.054157730142066</v>
+        <v>1.041093229147776</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8070385758574901</v>
+        <v>1.259336245440778</v>
       </c>
       <c r="C3">
-        <v>0.1447875784585975</v>
+        <v>0.09393073084703829</v>
       </c>
       <c r="D3">
-        <v>0.05261386623917375</v>
+        <v>0.04651900133580966</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.24167878236868</v>
+        <v>0.8494652745727365</v>
       </c>
       <c r="G3">
-        <v>1.119222560094229</v>
+        <v>0.7882325471371132</v>
       </c>
       <c r="H3">
-        <v>1.101473366892321</v>
+        <v>0.5597443541562797</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.399407620758268</v>
+        <v>0.9608109666641553</v>
       </c>
       <c r="L3">
-        <v>0.2931447837167553</v>
+        <v>0.3519418334635418</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.072376104573351</v>
+        <v>1.084119668019753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7782410031614972</v>
+        <v>1.145770103898855</v>
       </c>
       <c r="C4">
-        <v>0.1444185682655075</v>
+        <v>0.0930108449535858</v>
       </c>
       <c r="D4">
-        <v>0.05217782790180792</v>
+        <v>0.04560107507862909</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.23812150568542</v>
+        <v>0.8169764382192213</v>
       </c>
       <c r="G4">
-        <v>1.116483651846906</v>
+        <v>0.7606010891005468</v>
       </c>
       <c r="H4">
-        <v>1.103276275730423</v>
+        <v>0.5514788136255788</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3744920737558459</v>
+        <v>0.8703106836687766</v>
       </c>
       <c r="L4">
-        <v>0.2865851252705625</v>
+        <v>0.3234191715378216</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.084209235229796</v>
+        <v>1.111953297785391</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7666138606835773</v>
+        <v>1.099732980164077</v>
       </c>
       <c r="C5">
-        <v>0.1442670917370314</v>
+        <v>0.09263655708625151</v>
       </c>
       <c r="D5">
-        <v>0.05199828836267528</v>
+        <v>0.04522467751077031</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.236843069373904</v>
+        <v>0.8041088840027726</v>
       </c>
       <c r="G5">
-        <v>1.115529180478745</v>
+        <v>0.7497155408523923</v>
       </c>
       <c r="H5">
-        <v>1.104128640856047</v>
+        <v>0.5483308169637411</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3643777588673061</v>
+        <v>0.8335566352216404</v>
       </c>
       <c r="L5">
-        <v>0.2839567887518228</v>
+        <v>0.3119030328157066</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.089193930343693</v>
+        <v>1.123640697481903</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7646897212974579</v>
+        <v>1.092102260965021</v>
       </c>
       <c r="C6">
-        <v>0.1442418728643773</v>
+        <v>0.09257443739391391</v>
       </c>
       <c r="D6">
-        <v>0.05196836450886622</v>
+        <v>0.04516203617659187</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.236641123017883</v>
+        <v>0.8019940058382886</v>
       </c>
       <c r="G6">
-        <v>1.115380450074682</v>
+        <v>0.7479299155655781</v>
       </c>
       <c r="H6">
-        <v>1.104277283158666</v>
+        <v>0.5478210785852582</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3627006446240841</v>
+        <v>0.8274605744397832</v>
       </c>
       <c r="L6">
-        <v>0.2835230595036506</v>
+        <v>0.3099969399975606</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.090031453150544</v>
+        <v>1.125601909976076</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7780837573172619</v>
+        <v>1.145148292512204</v>
       </c>
       <c r="C7">
-        <v>0.1444165298506306</v>
+        <v>0.09300579504328965</v>
       </c>
       <c r="D7">
-        <v>0.05217541404770643</v>
+        <v>0.04559600829459498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.238103571228983</v>
+        <v>0.8168014275373707</v>
       </c>
       <c r="G7">
-        <v>1.11647012519434</v>
+        <v>0.760452798608128</v>
       </c>
       <c r="H7">
-        <v>1.103287294560445</v>
+        <v>0.5514354812984834</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3743555104922791</v>
+        <v>0.8698145274834417</v>
       </c>
       <c r="L7">
-        <v>0.2865494973209763</v>
+        <v>0.323263441588054</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.084275802339935</v>
+        <v>1.112109535308576</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8381368775703208</v>
+        <v>1.3814392835896</v>
       </c>
       <c r="C8">
-        <v>0.1451775575922838</v>
+        <v>0.0949147087811113</v>
       </c>
       <c r="D8">
-        <v>0.05307280561254757</v>
+        <v>0.04749051671122473</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.246060066249456</v>
+        <v>0.885474024855327</v>
       </c>
       <c r="G8">
-        <v>1.12269827079291</v>
+        <v>0.8190682510501972</v>
       </c>
       <c r="H8">
-        <v>1.099951602706867</v>
+        <v>0.5693492474644444</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4261274705279448</v>
+        <v>1.057878282231485</v>
       </c>
       <c r="L8">
-        <v>0.3002976554409429</v>
+        <v>0.3827754034551845</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.060305093828482</v>
+        <v>1.055628262728774</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9592943975889909</v>
+        <v>1.855030169057272</v>
       </c>
       <c r="C9">
-        <v>0.1466346169324879</v>
+        <v>0.09868850388162542</v>
       </c>
       <c r="D9">
-        <v>0.05477348885914779</v>
+        <v>0.05113198888479076</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.267072178873434</v>
+        <v>1.033841605901074</v>
       </c>
       <c r="G9">
-        <v>1.140027412067354</v>
+        <v>0.9478351306096897</v>
       </c>
       <c r="H9">
-        <v>1.097121502550536</v>
+        <v>0.6123374955415386</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5288716965494586</v>
+        <v>1.432527369011808</v>
       </c>
       <c r="L9">
-        <v>0.3286736726815889</v>
+        <v>0.5037505016087209</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.018435489207832</v>
+        <v>0.9566196934615547</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.0503781672586</v>
+        <v>2.211586838024516</v>
       </c>
       <c r="C10">
-        <v>0.1476832952272389</v>
+        <v>0.1014918047897382</v>
       </c>
       <c r="D10">
-        <v>0.05598654196006692</v>
+        <v>0.0537633811255489</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.285819096086016</v>
+        <v>1.152981631706012</v>
       </c>
       <c r="G10">
-        <v>1.155894367363146</v>
+        <v>1.052684647440756</v>
       </c>
       <c r="H10">
-        <v>1.097305302643832</v>
+        <v>0.649536392043899</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6051045684659186</v>
+        <v>1.713096392277549</v>
       </c>
       <c r="L10">
-        <v>0.3503908061022969</v>
+        <v>0.5960505646831962</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.990809377785887</v>
+        <v>0.8918176319560729</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.092264656665009</v>
+        <v>2.376239410762537</v>
       </c>
       <c r="C11">
-        <v>0.1481555715254146</v>
+        <v>0.1027768716702653</v>
       </c>
       <c r="D11">
-        <v>0.05653039967657492</v>
+        <v>0.05495125080359031</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.295068882724252</v>
+        <v>1.209813497177365</v>
       </c>
       <c r="G11">
-        <v>1.163797218593686</v>
+        <v>1.103048656932899</v>
       </c>
       <c r="H11">
-        <v>1.097880583207839</v>
+        <v>0.6678784497777031</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6399482075570688</v>
+        <v>1.842312105702263</v>
       </c>
       <c r="L11">
-        <v>0.3604607173156893</v>
+        <v>0.6389802891262661</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.978923254382728</v>
+        <v>0.8642501143636281</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.108190814734428</v>
+        <v>2.438993634285112</v>
       </c>
       <c r="C12">
-        <v>0.1483337172038688</v>
+        <v>0.1032651959814004</v>
       </c>
       <c r="D12">
-        <v>0.05673519005097205</v>
+        <v>0.0553997798554775</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.298675470544779</v>
+        <v>1.231752204895329</v>
       </c>
       <c r="G12">
-        <v>1.166888555336755</v>
+        <v>1.122543841477381</v>
       </c>
       <c r="H12">
-        <v>1.098169129494025</v>
+        <v>0.6750465281710518</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6531662168677883</v>
+        <v>1.891508539219387</v>
       </c>
       <c r="L12">
-        <v>0.3643014122941679</v>
+        <v>0.655389939713686</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.974520345773165</v>
+        <v>0.8541032991747386</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.10475796166935</v>
+        <v>2.425459567051007</v>
       </c>
       <c r="C13">
-        <v>0.1482953813989667</v>
+        <v>0.1031599462337454</v>
       </c>
       <c r="D13">
-        <v>0.05669113640316681</v>
+        <v>0.05530323803147752</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.297894104806872</v>
+        <v>1.227008079532283</v>
       </c>
       <c r="G13">
-        <v>1.166218387636704</v>
+        <v>1.118325701642902</v>
       </c>
       <c r="H13">
-        <v>1.098103841494435</v>
+        <v>0.6734925602740844</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6503184415673786</v>
+        <v>1.880900777607081</v>
       </c>
       <c r="L13">
-        <v>0.3634730292923933</v>
+        <v>0.6518487219665445</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.975464224905046</v>
+        <v>0.8562752965554452</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.093573617504433</v>
+        <v>2.381393836219729</v>
       </c>
       <c r="C14">
-        <v>0.1481702416591304</v>
+        <v>0.1028170106424469</v>
       </c>
       <c r="D14">
-        <v>0.05654727115057057</v>
+        <v>0.05498817726156346</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.295363516033561</v>
+        <v>1.211609801900636</v>
       </c>
       <c r="G14">
-        <v>1.164049565448494</v>
+        <v>1.104643811021063</v>
       </c>
       <c r="H14">
-        <v>1.097902905155109</v>
+        <v>0.6684636065046021</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6410351919282675</v>
+        <v>1.846353983387445</v>
       </c>
       <c r="L14">
-        <v>0.3607761435938102</v>
+        <v>0.6403271463254754</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.97855905726334</v>
+        <v>0.8634093634963307</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.08673129328298</v>
+        <v>2.35445648963406</v>
       </c>
       <c r="C15">
-        <v>0.1480934991724538</v>
+        <v>0.1026071827296136</v>
       </c>
       <c r="D15">
-        <v>0.05645899855698389</v>
+        <v>0.05479502617829723</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.293826990787409</v>
+        <v>1.202233520438199</v>
       </c>
       <c r="G15">
-        <v>1.162733958986692</v>
+        <v>1.096319641167213</v>
       </c>
       <c r="H15">
-        <v>1.09778903305363</v>
+        <v>0.665412746769789</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6353519841804598</v>
+        <v>1.825228786607028</v>
       </c>
       <c r="L15">
-        <v>0.3591277970489415</v>
+        <v>0.6332903350798205</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.980467512918786</v>
+        <v>0.8678178125323441</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.047649852880738</v>
+        <v>2.20088004088143</v>
       </c>
       <c r="C16">
-        <v>0.1476523340679776</v>
+        <v>0.1014080439724552</v>
       </c>
       <c r="D16">
-        <v>0.05595083831834557</v>
+        <v>0.0536855687237221</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.285229133176955</v>
+        <v>1.149323798413519</v>
       </c>
       <c r="G16">
-        <v>1.155391697332036</v>
+        <v>1.049450247597505</v>
       </c>
       <c r="H16">
-        <v>1.097277600196819</v>
+        <v>0.6483677866044104</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6028307531657617</v>
+        <v>1.704686842385428</v>
       </c>
       <c r="L16">
-        <v>0.3497365522668048</v>
+        <v>0.5932654357620066</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.991599883838738</v>
+        <v>0.8936591614632405</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.023790182327673</v>
+        <v>2.107329213582261</v>
       </c>
       <c r="C17">
-        <v>0.1473804648761501</v>
+        <v>0.1006751207537135</v>
       </c>
       <c r="D17">
-        <v>0.0556370501180723</v>
+        <v>0.05300262175521908</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.280139555225247</v>
+        <v>1.117566812049887</v>
       </c>
       <c r="G17">
-        <v>1.151063025642998</v>
+        <v>1.021407906238792</v>
       </c>
       <c r="H17">
-        <v>1.097089779567185</v>
+        <v>0.6382874018763118</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5829221037472792</v>
+        <v>1.631169554826783</v>
       </c>
       <c r="L17">
-        <v>0.3440241784533526</v>
+        <v>0.5689648127179794</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.998603801784292</v>
+        <v>0.9100135487946446</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.010109298379064</v>
+        <v>2.053748851330397</v>
       </c>
       <c r="C18">
-        <v>0.147223644198931</v>
+        <v>0.100254469205133</v>
       </c>
       <c r="D18">
-        <v>0.05545581828746649</v>
+        <v>0.05260894414713846</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.277280089554722</v>
+        <v>1.099546491005469</v>
       </c>
       <c r="G18">
-        <v>1.14863774089936</v>
+        <v>1.005527188941997</v>
       </c>
       <c r="H18">
-        <v>1.09702802831292</v>
+        <v>0.6326219245466973</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5714867126249032</v>
+        <v>1.589030968767588</v>
       </c>
       <c r="L18">
-        <v>0.3407565185437988</v>
+        <v>0.5550752591273778</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.002696371693503</v>
+        <v>0.9195989203187054</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.005484507747212</v>
+        <v>2.035645063249206</v>
       </c>
       <c r="C19">
-        <v>0.1471704706146895</v>
+        <v>0.1001121914014789</v>
       </c>
       <c r="D19">
-        <v>0.05539432797869281</v>
+        <v>0.05247550250449962</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.276323586393744</v>
+        <v>1.093486144732836</v>
       </c>
       <c r="G19">
-        <v>1.147827644544321</v>
+        <v>1.000191769825094</v>
       </c>
       <c r="H19">
-        <v>1.097015068792203</v>
+        <v>0.6307259192830657</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5676175614625265</v>
+        <v>1.574787655634026</v>
       </c>
       <c r="L19">
-        <v>0.3396532267849182</v>
+        <v>0.5503870130174562</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.004093050168059</v>
+        <v>0.9228745534798719</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.026325681933486</v>
+        <v>2.117263946522769</v>
       </c>
       <c r="C20">
-        <v>0.147409452319593</v>
+        <v>0.1007530459122634</v>
       </c>
       <c r="D20">
-        <v>0.0556705310237291</v>
+        <v>0.05307541193997878</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.280674318697464</v>
+        <v>1.120921722121125</v>
       </c>
       <c r="G20">
-        <v>1.151517147985771</v>
+        <v>1.024367064899423</v>
       </c>
       <c r="H20">
-        <v>1.09710498378341</v>
+        <v>0.6393466369908225</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5850398071116274</v>
+        <v>1.638980159759683</v>
       </c>
       <c r="L20">
-        <v>0.3446304128756594</v>
+        <v>0.5715424741841701</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.997851587319872</v>
+        <v>0.9082539727989669</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.096856978580149</v>
+        <v>2.394325619857796</v>
       </c>
       <c r="C21">
-        <v>0.1482070171690708</v>
+        <v>0.1029176906440412</v>
       </c>
       <c r="D21">
-        <v>0.05658955934460863</v>
+        <v>0.05508075304659599</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.296103990739766</v>
+        <v>1.216120986557769</v>
       </c>
       <c r="G21">
-        <v>1.164683920758549</v>
+        <v>1.108650687786977</v>
       </c>
       <c r="H21">
-        <v>1.097960006255107</v>
+        <v>0.6699345456939199</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.64376127203343</v>
+        <v>1.856493700281902</v>
       </c>
       <c r="L21">
-        <v>0.3615675394829481</v>
+        <v>0.6437070093974455</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.977647366037743</v>
+        <v>0.86130583175661</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.143329948457165</v>
+        <v>2.577782399992373</v>
       </c>
       <c r="C22">
-        <v>0.1487242162627425</v>
+        <v>0.1043424613606305</v>
       </c>
       <c r="D22">
-        <v>0.05718344999873892</v>
+        <v>0.05638385001445556</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.306793801719039</v>
+        <v>1.280794421018143</v>
       </c>
       <c r="G22">
-        <v>1.173864557083931</v>
+        <v>1.166223964362814</v>
       </c>
       <c r="H22">
-        <v>1.098930906926199</v>
+        <v>0.6912310353369833</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6822758905168769</v>
+        <v>2.000217238970066</v>
       </c>
       <c r="L22">
-        <v>0.3727968701223432</v>
+        <v>0.6917723500557287</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.965014667683867</v>
+        <v>0.8323361427617399</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.118492097055878</v>
+        <v>2.479632168717728</v>
       </c>
       <c r="C23">
-        <v>0.148448551350242</v>
+        <v>0.1035810120951908</v>
       </c>
       <c r="D23">
-        <v>0.05686710044638232</v>
+        <v>0.0556890389649638</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.301032996221366</v>
+        <v>1.246038623824873</v>
       </c>
       <c r="G23">
-        <v>1.168911960416139</v>
+        <v>1.135254204276293</v>
       </c>
       <c r="H23">
-        <v>1.098375012478158</v>
+        <v>0.6797388389850312</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6617074794153268</v>
+        <v>1.923352741723846</v>
       </c>
       <c r="L23">
-        <v>0.3667889243273521</v>
+        <v>0.6660302471881607</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.971704590630971</v>
+        <v>0.8476348052453702</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.025179269283854</v>
+        <v>2.112771824479182</v>
       </c>
       <c r="C24">
-        <v>0.1473963487146221</v>
+        <v>0.100717813739692</v>
       </c>
       <c r="D24">
-        <v>0.0556553968928668</v>
+        <v>0.05304250674581823</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.280432344679284</v>
+        <v>1.119404231373451</v>
       </c>
       <c r="G24">
-        <v>1.151311642029242</v>
+        <v>1.023028480962324</v>
       </c>
       <c r="H24">
-        <v>1.097097965949189</v>
+        <v>0.6388673536312268</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5840823611460451</v>
+        <v>1.635448590991388</v>
       </c>
       <c r="L24">
-        <v>0.3443562830271105</v>
+        <v>0.5703768618364506</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.998191458129234</v>
+        <v>0.9090489083616546</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9261547252329194</v>
+        <v>1.725582062979441</v>
       </c>
       <c r="C25">
-        <v>0.1462442551279075</v>
+        <v>0.09766316107791795</v>
       </c>
       <c r="D25">
-        <v>0.05431977883119998</v>
+        <v>0.05015468744117868</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.260807534048269</v>
+        <v>0.9920615295260262</v>
       </c>
       <c r="G25">
-        <v>1.134790037636847</v>
+        <v>0.9113411133872944</v>
       </c>
       <c r="H25">
-        <v>1.097489750949833</v>
+        <v>0.5997853450626849</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5009457691808166</v>
+        <v>1.330375796570621</v>
       </c>
       <c r="L25">
-        <v>0.320844994949141</v>
+        <v>0.4704856652008544</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.029211997147272</v>
+        <v>0.9820697307856108</v>
       </c>
       <c r="O25">
         <v>0</v>
